--- a/doggentle/doc/테이블명세서.xlsx
+++ b/doggentle/doc/테이블명세서.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dormac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmddu\OneDrive\문서\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0D5B46-FC8C-D74E-8056-4BA4F7CD7994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6DED9-5025-412C-B335-85307CC6ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="645" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="회원 테이블 명세서" sheetId="5" r:id="rId3"/>
     <sheet name="분류 테이블 명세서" sheetId="19" r:id="rId4"/>
-    <sheet name="물건 테이블 명세서" sheetId="20" r:id="rId5"/>
-    <sheet name="주소록 테이블 명세서" sheetId="22" r:id="rId6"/>
-    <sheet name="거래 테이블 명세서" sheetId="23" r:id="rId7"/>
-    <sheet name="리뷰 테이블 명세서" sheetId="24" r:id="rId8"/>
-    <sheet name="문의 테이블 명세서" sheetId="25" r:id="rId9"/>
-    <sheet name="사진 테이블 명세서" sheetId="21" r:id="rId10"/>
+    <sheet name="사진 테이블 명세서" sheetId="21" r:id="rId5"/>
+    <sheet name="물건 테이블 명세서" sheetId="20" r:id="rId6"/>
+    <sheet name="주소록 테이블 명세서" sheetId="22" r:id="rId7"/>
+    <sheet name="거래 테이블 명세서" sheetId="23" r:id="rId8"/>
+    <sheet name="리뷰 테이블 명세서" sheetId="24" r:id="rId9"/>
+    <sheet name="문의 테이블 명세서" sheetId="25" r:id="rId10"/>
     <sheet name="장바구니 테이블 명세서" sheetId="27" r:id="rId11"/>
     <sheet name="출석 테이블 명세서" sheetId="28" r:id="rId12"/>
     <sheet name="인증 테이블 명세서" sheetId="29" r:id="rId13"/>
-    <sheet name="포인트 테이블 명세서" sheetId="30" r:id="rId14"/>
-    <sheet name="포인트코드 테이블 명세서" sheetId="31" r:id="rId15"/>
+    <sheet name="포인트코드 테이블 명세서" sheetId="31" r:id="rId14"/>
+    <sheet name="포인트 테이블 명세서" sheetId="30" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="230">
   <si>
     <t>Table Commend</t>
   </si>
@@ -550,333 +550,352 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>배송번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송시작일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>물량</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>tno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES transaction(tno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upqna번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upqno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES qna(qno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload이름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>save이름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>용량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>용도</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK IN('gds', 'rev')</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES goods(gno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일주소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트수량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvalue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES code(cno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트코드 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upcno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES address (adno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES goods (gno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES member (mno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>cano</t>
+  </si>
+  <si>
+    <t>분류번호</t>
+  </si>
+  <si>
+    <t>분류 테이블</t>
+  </si>
+  <si>
+    <t>분류이름</t>
+  </si>
+  <si>
+    <t>isshow</t>
+  </si>
+  <si>
+    <t>REFERENCES category(cano)</t>
+  </si>
+  <si>
+    <t>caname</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>CHECK IN('F',  'M')</t>
+  </si>
+  <si>
+    <t>생년월일</t>
+  </si>
+  <si>
+    <t>bdate</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>CHECK IN('cst', 'mng', 'ext')</t>
+  </si>
+  <si>
+    <t>gno</t>
+  </si>
+  <si>
+    <t>REFERENCES goods(gno)</t>
+  </si>
+  <si>
+    <t>물건번호</t>
+  </si>
+  <si>
+    <t>상위분류</t>
+  </si>
+  <si>
+    <t>upno</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>물건이름</t>
+  </si>
+  <si>
+    <t>물건상세</t>
+  </si>
+  <si>
+    <t>gname</t>
+  </si>
+  <si>
+    <t>gdetail</t>
+  </si>
+  <si>
     <t>재고</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>30 CHAR</t>
+  </si>
+  <si>
+    <t>4000 CHAR</t>
+  </si>
+  <si>
+    <t>상위거래번호</t>
+  </si>
+  <si>
+    <t>UMBER</t>
+  </si>
+  <si>
+    <t>노출여부</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CHECK IN('Y', 'N')</t>
+  </si>
+  <si>
+    <t>수량</t>
   </si>
   <si>
     <t>quantity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호 API사용시 FK,NN전환</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES transaction(tno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>upqna번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>upqno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES qna(qno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES member(mno)/테이블 오류 시 마켓번호 전환</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload이름</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>save이름</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장경로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>용량</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>용도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dir</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>purpose</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECK IN('gds', 'rev')</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES goods(gno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cert</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증요청일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일주소</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증여부</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트수량</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pvalue</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES code(cno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트코드 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>upcno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES address (adno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES goods (gno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES member (mno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송테이블 생성 시 NN전환</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mng</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>cano</t>
-  </si>
-  <si>
-    <t>분류번호</t>
-  </si>
-  <si>
-    <t>분류 테이블</t>
-  </si>
-  <si>
-    <t>분류이름</t>
-  </si>
-  <si>
-    <t>isshow</t>
-  </si>
-  <si>
-    <t>REFERENCES category(cano)</t>
-  </si>
-  <si>
-    <t>caname</t>
-  </si>
-  <si>
-    <t>CHECK IN(0,1,2,3,4,5,6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>CHECK IN('F',  'M')</t>
-  </si>
-  <si>
-    <t>생년월일</t>
-  </si>
-  <si>
-    <t>bdate</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>cst</t>
-  </si>
-  <si>
-    <t>CHECK IN('cst', 'mng', 'ext')</t>
-  </si>
-  <si>
-    <t>gno</t>
-  </si>
-  <si>
-    <t>REFERENCES goods(gno)</t>
-  </si>
-  <si>
-    <t>물건번호</t>
+  </si>
+  <si>
+    <t>odate</t>
+  </si>
+  <si>
+    <t>sysdate</t>
+  </si>
+  <si>
+    <t>포인트발생일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1998,8 +2017,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2308,22 +2327,22 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="3:5" s="1" customFormat="1"/>
-    <row r="4" spans="3:5">
+    <row r="3" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="51" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="56" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2378,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="9" spans="3:5" s="1" customFormat="1">
+    <row r="9" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="56" t="s">
         <v>10</v>
       </c>
@@ -2368,7 +2387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:5" s="1" customFormat="1">
+    <row r="10" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="51" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +2416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="8">
         <v>1</v>
       </c>
@@ -2408,7 +2427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -2419,126 +2438,126 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>4</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>5</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>6</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>7</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="4">
         <v>9</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <v>11</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>12</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
         <v>13</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>14</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>16</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>17</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="4">
         <v>18</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>19</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>20</v>
       </c>
@@ -2563,38 +2582,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545135F-297A-490F-BCCF-DD6CD5203B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85A97F5-5C0F-4924-8D56-B53909E0AF0B}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="159" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -2606,13 +2625,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -2624,7 +2643,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2665,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -2662,7 +2681,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2700,15 +2719,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
@@ -2726,15 +2745,15 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>46</v>
@@ -2752,27 +2771,25 @@
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
         <v>27</v>
       </c>
@@ -2780,104 +2797,120 @@
       <c r="L9" s="35"/>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="43">
+        <v>6</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="36" t="s">
+        <v>206</v>
+      </c>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="43">
+        <v>6</v>
+      </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="K12" s="35"/>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="43"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="37"/>
+      <c r="L13" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -2891,9 +2924,9 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -2907,25 +2940,25 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="C16" s="47"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -2937,11 +2970,11 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -2957,7 +2990,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +3008,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -3020,32 +3053,32 @@
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="188" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -3057,13 +3090,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -3075,7 +3108,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +3130,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3146,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3151,12 +3184,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>76</v>
@@ -3177,7 +3210,7 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
@@ -3207,7 +3240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
@@ -3234,10 +3267,10 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
@@ -3270,23 +3303,33 @@
       </c>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="43">
+        <v>4</v>
+      </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="35">
+        <v>1</v>
+      </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -3302,7 +3345,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -3318,7 +3361,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -3334,7 +3377,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -3350,7 +3393,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -3366,7 +3409,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -3382,7 +3425,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -3398,7 +3441,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -3416,7 +3459,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -3461,26 +3504,26 @@
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="181" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3541,7 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3559,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3581,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -3554,7 +3597,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
@@ -3618,7 +3661,7 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
@@ -3648,12 +3691,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>88</v>
@@ -3674,7 +3717,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
@@ -3691,7 +3734,7 @@
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
@@ -3707,7 +3750,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -3723,7 +3766,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -3739,7 +3782,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -3755,7 +3798,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -3771,7 +3814,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -3787,7 +3830,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -3803,7 +3846,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -3819,7 +3862,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -3837,7 +3880,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -3886,22 +3929,22 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
@@ -3919,13 +3962,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -3937,7 +3980,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -3959,7 +4002,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -3975,7 +4018,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -4013,7 +4056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
@@ -4039,7 +4082,7 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
@@ -4047,7 +4090,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>47</v>
@@ -4065,15 +4108,15 @@
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>52</v>
@@ -4091,15 +4134,15 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>46</v>
@@ -4118,12 +4161,12 @@
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>92</v>
@@ -4150,7 +4193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -4166,7 +4209,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -4182,7 +4225,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -4198,7 +4241,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -4214,7 +4257,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -4230,7 +4273,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -4246,7 +4289,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -4262,7 +4305,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -4280,7 +4323,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -4319,38 +4362,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D96192-3A93-45AB-B40E-6A9834922CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19C8B2E-FF7B-411C-BF33-14FA0F78349E}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="V3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -4362,13 +4405,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -4380,7 +4423,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -4402,7 +4445,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -4418,7 +4461,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -4456,21 +4499,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>27</v>
@@ -4482,45 +4525,41 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="43">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>47</v>
@@ -4533,67 +4572,47 @@
         <v>27</v>
       </c>
       <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="43">
-        <v>4</v>
-      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="43"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -4609,7 +4628,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -4625,7 +4644,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -4641,7 +4660,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -4657,7 +4676,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -4673,7 +4692,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -4689,7 +4708,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -4705,7 +4724,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -4723,7 +4742,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -4762,38 +4781,38 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19C8B2E-FF7B-411C-BF33-14FA0F78349E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D96192-3A93-45AB-B40E-6A9834922CB1}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:M19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -4805,13 +4824,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -4823,7 +4842,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -4845,7 +4864,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4880,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -4899,21 +4918,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>27</v>
@@ -4925,41 +4944,45 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="F8" s="43">
+        <v>4</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="M8" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>47</v>
@@ -4972,63 +4995,93 @@
         <v>27</v>
       </c>
       <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="43">
+        <v>4</v>
+      </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="43"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>201</v>
+      </c>
       <c r="F12" s="43"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K12" s="35"/>
-      <c r="L12" s="37"/>
+      <c r="L12" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -5044,7 +5097,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -5060,7 +5113,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -5076,7 +5129,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -5092,7 +5145,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -5108,7 +5161,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -5124,7 +5177,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -5142,7 +5195,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -5189,21 +5242,21 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="36" customHeight="1">
+    <row r="2" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
     </row>
-    <row r="4" spans="2:4" s="15" customFormat="1" ht="26" customHeight="1">
+    <row r="4" spans="2:4" s="15" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
@@ -5214,7 +5267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="54">
+    <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -5225,7 +5278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -5236,91 +5289,91 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>15</v>
       </c>
@@ -5345,25 +5398,25 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
@@ -5381,7 +5434,7 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5452,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -5421,7 +5474,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -5437,7 +5490,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -5475,7 +5528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
@@ -5501,7 +5554,7 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
@@ -5529,7 +5582,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
@@ -5557,7 +5610,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
@@ -5584,18 +5637,18 @@
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="35"/>
@@ -5608,18 +5661,18 @@
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F12" s="43">
         <v>1</v>
@@ -5628,17 +5681,17 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -5664,7 +5717,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -5690,13 +5743,13 @@
         <v>27</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -5712,7 +5765,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -5728,7 +5781,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -5744,7 +5797,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -5760,7 +5813,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -5778,7 +5831,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -5824,31 +5877,31 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -5860,13 +5913,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -5878,7 +5931,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -5900,7 +5953,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -5916,7 +5969,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -5954,15 +6007,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
@@ -5980,47 +6033,45 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>77</v>
+        <v>210</v>
+      </c>
+      <c r="F8" s="43">
+        <v>6</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="43">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -6028,34 +6079,44 @@
       <c r="J9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="36"/>
+      <c r="J10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
@@ -6067,11 +6128,11 @@
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
@@ -6087,7 +6148,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -6103,7 +6164,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -6119,7 +6180,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -6135,7 +6196,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -6151,7 +6212,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -6167,7 +6228,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -6183,7 +6244,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6262,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -6240,38 +6301,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9ED2AE-B6D7-4067-AA69-C3F865628C68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545135F-297A-490F-BCCF-DD6CD5203B3E}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -6283,13 +6344,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -6301,7 +6362,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -6323,7 +6384,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -6339,7 +6400,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -6377,15 +6438,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
@@ -6403,21 +6464,21 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="43">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
@@ -6429,51 +6490,49 @@
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="43">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="43">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -6482,24 +6541,22 @@
         <v>27</v>
       </c>
       <c r="K10" s="35"/>
-      <c r="L10" s="43">
-        <v>0</v>
-      </c>
+      <c r="L10" s="43"/>
       <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="35"/>
@@ -6509,74 +6566,56 @@
         <v>27</v>
       </c>
       <c r="K11" s="37"/>
-      <c r="L11" s="35" t="s">
-        <v>68</v>
-      </c>
+      <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F12" s="43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
@@ -6592,7 +6631,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -6608,7 +6647,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -6624,7 +6663,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -6640,7 +6679,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -6656,7 +6695,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -6674,7 +6713,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -6713,38 +6752,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFCD7E6-EB43-440D-8328-57F37FE5C318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9ED2AE-B6D7-4067-AA69-C3F865628C68}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:M19"/>
+    <sheetView zoomScale="138" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -6756,13 +6795,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -6774,7 +6813,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -6796,7 +6835,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -6812,7 +6851,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -6850,21 +6889,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>27</v>
@@ -6876,21 +6915,21 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
@@ -6902,45 +6941,39 @@
       <c r="L8" s="35"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="43">
-        <v>4</v>
+        <v>217</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>219</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>47</v>
@@ -6954,26 +6987,24 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="36" t="s">
-        <v>144</v>
-      </c>
+      <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="F11" s="43">
+        <v>10</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -6981,51 +7012,55 @@
       <c r="J11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="F12" s="43">
+        <v>4</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="35"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="L12" s="35"/>
+      <c r="M12" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -7033,65 +7068,101 @@
       <c r="J13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="K13" s="35"/>
+      <c r="L13" s="43">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="43"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="J14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6</v>
+      </c>
       <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="H15" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K15" s="35"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="M15" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="C16" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -7103,11 +7174,11 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -7119,11 +7190,11 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="37"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -7141,7 +7212,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -7180,38 +7251,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1617754-2767-4B67-B66B-1B7EA01CC77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFCD7E6-EB43-440D-8328-57F37FE5C318}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="143" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -7223,13 +7294,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -7241,7 +7312,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -7263,7 +7334,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -7279,7 +7350,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -7317,21 +7388,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>27</v>
@@ -7343,51 +7414,47 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="43">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35" t="s">
@@ -7400,54 +7467,50 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="36" t="s">
-        <v>195</v>
-      </c>
+      <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="43"/>
+        <v>46</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>79</v>
+      </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -7455,116 +7518,100 @@
         <v>27</v>
       </c>
       <c r="K11" s="37"/>
-      <c r="L11" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="L11" s="35"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="43">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K12" s="35"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="43"/>
+        <v>51</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="M13" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="43">
-        <v>4</v>
-      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="37">
-        <v>1</v>
-      </c>
+      <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="43">
-        <v>6</v>
-      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -7580,7 +7627,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -7596,7 +7643,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -7612,7 +7659,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -7630,7 +7677,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -7669,38 +7716,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13ED0CE-7292-4768-8313-99D34EBA812F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1617754-2767-4B67-B66B-1B7EA01CC77A}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A4" zoomScale="143" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -7712,13 +7759,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -7730,7 +7777,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -7752,7 +7799,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -7768,7 +7815,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -7806,15 +7853,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
@@ -7832,21 +7879,21 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
@@ -7859,136 +7906,136 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="F9" s="43">
+        <v>6</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="H9" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="M9" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="43">
+        <v>4</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="36" t="s">
+        <v>186</v>
+      </c>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="43">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="K11" s="37"/>
+      <c r="L11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="F12" s="43">
         <v>6</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="43"/>
+        <v>47</v>
+      </c>
+      <c r="F13" s="43">
+        <v>4</v>
+      </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -7996,23 +8043,23 @@
         <v>27</v>
       </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="37" t="s">
-        <v>68</v>
+      <c r="L13" s="37">
+        <v>1</v>
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="F14" s="43">
         <v>1</v>
@@ -8027,13 +8074,13 @@
         <v>27</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -8049,7 +8096,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
@@ -8065,7 +8112,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -8081,7 +8128,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -8097,7 +8144,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -8115,7 +8162,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
@@ -8154,38 +8201,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85A97F5-5C0F-4924-8D56-B53909E0AF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13ED0CE-7292-4768-8313-99D34EBA812F}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="187" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="65" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -8197,13 +8244,13 @@
       <c r="L2" s="66"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="70" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -8215,7 +8262,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73" t="s">
         <v>9</v>
       </c>
@@ -8237,7 +8284,7 @@
       </c>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="2:15" ht="23" thickBot="1">
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>13</v>
       </c>
@@ -8253,7 +8300,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -8291,15 +8338,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>47</v>
@@ -8317,47 +8364,51 @@
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="F8" s="43">
+        <v>6</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="M8" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -8369,94 +8420,88 @@
       <c r="L9" s="35"/>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="43">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="35"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="36" t="s">
-        <v>218</v>
-      </c>
+      <c r="M10" s="36"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="35"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="L11" s="37"/>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="M12" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <v>7</v>
       </c>
@@ -8464,7 +8509,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>52</v>
@@ -8482,35 +8527,37 @@
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <v>8</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="K14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <v>9</v>
       </c>
@@ -8524,25 +8571,25 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <v>10</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <v>11</v>
       </c>
@@ -8554,11 +8601,11 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="46">
         <v>12</v>
       </c>
@@ -8574,7 +8621,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>1</v>
       </c>
@@ -8592,7 +8639,7 @@
       <c r="L19" s="86"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="2:13" ht="18" thickBot="1">
+    <row r="20" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="88" t="s">
         <v>24</v>
       </c>
